--- a/llm-approach/manual-reconstruction/sentence-based-task/scripts/outputs/poe_GPT-4-2024-01-19_14-43-16/llm-manual-2.xlsx
+++ b/llm-approach/manual-reconstruction/sentence-based-task/scripts/outputs/poe_GPT-4-2024-01-19_14-43-16/llm-manual-2.xlsx
@@ -4273,7 +4273,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -4484,6 +4484,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
     <row r="10" spans="1:10">
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -4625,7 +4636,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4642,7 +4653,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -4966,6 +4977,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
     <row r="15" spans="1:10">
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -5268,7 +5290,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5285,7 +5307,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -5747,6 +5769,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
     <row r="21" spans="4:10">
       <c r="D21" s="1" t="s">
         <v>15</v>
@@ -6233,7 +6266,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6250,7 +6283,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -6439,6 +6472,15 @@
       <c r="B8" t="s">
         <v>407</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="D9" s="1" t="s">
@@ -6558,7 +6600,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6575,7 +6617,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -6807,6 +6849,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="10" spans="1:10">
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
     <row r="11" spans="1:10">
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -6971,7 +7024,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6988,7 +7041,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -7404,6 +7457,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
     <row r="19" spans="4:10">
       <c r="D19" s="1" t="s">
         <v>15</v>
@@ -7752,7 +7816,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7769,7 +7833,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -7958,6 +8022,15 @@
       <c r="B8" t="s">
         <v>461</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="D9" s="1" t="s">
@@ -8077,7 +8150,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8094,7 +8167,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -8648,6 +8721,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="24" spans="4:10">
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
     <row r="25" spans="4:10">
       <c r="D25" s="1" t="s">
         <v>15</v>
@@ -9134,7 +9218,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9151,7 +9235,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -9636,6 +9720,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
     <row r="22" spans="4:10">
       <c r="D22" s="1" t="s">
         <v>15</v>
@@ -10053,7 +10148,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10070,7 +10165,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68" bestFit="1" customWidth="1"/>
@@ -10485,6 +10580,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
     <row r="19" spans="4:10">
       <c r="D19" s="1" t="s">
         <v>15</v>
@@ -10833,7 +10939,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10850,7 +10956,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -11220,6 +11326,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="16" spans="1:10">
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
     <row r="17" spans="4:10">
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -11522,7 +11639,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11539,7 +11656,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -11728,6 +11845,15 @@
       <c r="B8" t="s">
         <v>56</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="D9" s="1" t="s">
@@ -11847,7 +11973,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11864,7 +11990,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -12096,6 +12222,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="10" spans="1:10">
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
     <row r="11" spans="1:10">
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -12260,7 +12397,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12277,7 +12414,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -12555,6 +12692,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="12" spans="1:10">
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
     <row r="13" spans="1:10">
       <c r="D13" s="1" t="s">
         <v>15</v>
@@ -12765,7 +12913,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12782,7 +12930,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -13060,6 +13208,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="12" spans="1:10">
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
     <row r="13" spans="1:10">
       <c r="D13" s="1" t="s">
         <v>15</v>
@@ -13270,7 +13429,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13287,7 +13446,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -13447,6 +13606,15 @@
       <c r="B7" t="s">
         <v>623</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
@@ -13595,7 +13763,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13612,7 +13780,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -13913,6 +14081,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
     <row r="14" spans="1:10">
       <c r="D14" s="1" t="s">
         <v>15</v>
@@ -14146,7 +14325,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14163,7 +14342,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -14395,6 +14574,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="10" spans="1:10">
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
     <row r="11" spans="1:10">
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -14559,7 +14749,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14576,7 +14766,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="112.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -15153,6 +15343,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="25" spans="4:10">
+      <c r="D25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
     <row r="26" spans="4:10">
       <c r="D26" s="1" t="s">
         <v>15</v>
@@ -15662,7 +15863,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15679,7 +15880,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="65.28515625" bestFit="1" customWidth="1"/>
@@ -16163,6 +16364,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
     <row r="22" spans="4:10">
       <c r="D22" s="1" t="s">
         <v>15</v>
@@ -16580,7 +16792,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16597,7 +16809,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="107.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -17082,6 +17294,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
     <row r="22" spans="4:10">
       <c r="D22" s="1" t="s">
         <v>15</v>
@@ -17499,7 +17722,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17516,7 +17739,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -17886,6 +18109,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="16" spans="1:10">
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
     <row r="17" spans="4:10">
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -18188,7 +18422,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18205,7 +18439,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -18529,6 +18763,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
     <row r="15" spans="1:10">
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -18785,7 +19030,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18802,7 +19047,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -19126,6 +19371,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
     <row r="15" spans="1:10">
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -19382,7 +19638,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19399,7 +19655,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -19700,6 +19956,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
     <row r="14" spans="1:10">
       <c r="D14" s="1" t="s">
         <v>15</v>
@@ -19933,7 +20200,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19950,7 +20217,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="111" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -20481,6 +20748,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="23" spans="4:10">
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
     <row r="24" spans="4:10">
       <c r="D24" s="1" t="s">
         <v>15</v>
@@ -20944,7 +21222,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20961,7 +21239,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -21262,6 +21540,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
     <row r="14" spans="1:10">
       <c r="D14" s="1" t="s">
         <v>15</v>
@@ -21518,7 +21807,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21535,7 +21824,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -21813,6 +22102,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="12" spans="1:10">
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
     <row r="13" spans="1:10">
       <c r="D13" s="1" t="s">
         <v>15</v>
@@ -22023,7 +22323,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22040,7 +22340,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -22341,6 +22641,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
     <row r="14" spans="1:10">
       <c r="D14" s="1" t="s">
         <v>15</v>
@@ -22574,7 +22885,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22591,7 +22902,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="65.28515625" bestFit="1" customWidth="1"/>
@@ -22845,6 +23156,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="11" spans="1:10">
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
     <row r="12" spans="1:10">
       <c r="D12" s="1" t="s">
         <v>15</v>
@@ -23032,7 +23354,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23049,7 +23371,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -23350,6 +23672,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
     <row r="14" spans="1:10">
       <c r="D14" s="1" t="s">
         <v>15</v>
@@ -23583,7 +23916,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23600,7 +23933,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -23789,6 +24122,15 @@
       <c r="B8" t="s">
         <v>930</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="D9" s="1" t="s">
@@ -23954,7 +24296,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23971,7 +24313,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="103" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -24410,6 +24752,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
     <row r="20" spans="4:10">
       <c r="D20" s="1" t="s">
         <v>15</v>
@@ -24827,7 +25180,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D19:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24844,7 +25197,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="165.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -25536,6 +25889,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="30" spans="4:10">
+      <c r="D30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
     <row r="31" spans="4:10">
       <c r="D31" s="1" t="s">
         <v>15</v>
@@ -26252,7 +26616,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D30:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26269,7 +26633,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -26570,6 +26934,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
     <row r="14" spans="1:10">
       <c r="D14" s="1" t="s">
         <v>15</v>
@@ -26803,7 +27178,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26820,7 +27195,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="176.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -27696,6 +28071,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="38" spans="4:10">
+      <c r="D38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
     <row r="39" spans="4:10">
       <c r="D39" s="1" t="s">
         <v>15</v>
@@ -28504,7 +28890,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="D38:J38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28521,7 +28907,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -28891,6 +29277,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="16" spans="1:10">
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
     <row r="17" spans="4:10">
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -29193,7 +29590,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29210,7 +29607,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -29421,6 +29818,17 @@
         <v>1048</v>
       </c>
     </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
     <row r="10" spans="1:10">
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -29562,7 +29970,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29579,7 +29987,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -29949,6 +30357,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="16" spans="1:10">
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
     <row r="17" spans="4:10">
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -30251,7 +30670,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30268,7 +30687,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -30592,6 +31011,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
     <row r="15" spans="1:10">
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -30894,7 +31324,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30911,7 +31341,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -31304,6 +31734,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
     <row r="18" spans="4:10">
       <c r="D18" s="1" t="s">
         <v>15</v>
@@ -31629,7 +32070,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31646,7 +32087,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="169.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -32430,6 +32871,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="34" spans="4:10">
+      <c r="D34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
     <row r="35" spans="4:10">
       <c r="D35" s="1" t="s">
         <v>15</v>
@@ -33146,7 +33598,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="D34:J34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33163,7 +33615,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -33418,6 +33870,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="11" spans="1:10">
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
     <row r="12" spans="1:10">
       <c r="D12" s="1" t="s">
         <v>15</v>
@@ -33605,7 +34068,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33622,7 +34085,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -33923,6 +34386,17 @@
         <v>44</v>
       </c>
     </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
     <row r="14" spans="1:10">
       <c r="D14" s="1" t="s">
         <v>15</v>
@@ -34179,7 +34653,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34196,7 +34670,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -34451,6 +34925,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="11" spans="1:10">
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
     <row r="12" spans="1:10">
       <c r="D12" s="1" t="s">
         <v>15</v>
@@ -34638,7 +35123,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34655,7 +35140,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -35048,6 +35533,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
     <row r="18" spans="4:10">
       <c r="D18" s="1" t="s">
         <v>15</v>
@@ -35373,7 +35869,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35390,7 +35886,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="162" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -36082,6 +36578,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="30" spans="4:10">
+      <c r="D30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
     <row r="31" spans="4:10">
       <c r="D31" s="1" t="s">
         <v>15</v>
@@ -36798,7 +37305,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D30:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36815,7 +37322,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="111.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -37323,6 +37830,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
     <row r="23" spans="4:10">
       <c r="D23" s="1" t="s">
         <v>15</v>
@@ -37763,7 +38281,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37780,7 +38298,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -38219,6 +38737,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
     <row r="20" spans="4:10">
       <c r="D20" s="1" t="s">
         <v>15</v>
@@ -38636,7 +39165,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D19:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38653,7 +39182,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="159.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -39207,6 +39736,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="24" spans="4:10">
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
     <row r="25" spans="4:10">
       <c r="D25" s="1" t="s">
         <v>15</v>
@@ -39739,7 +40279,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39756,7 +40296,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="144.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -40471,6 +41011,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="31" spans="4:10">
+      <c r="D31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
     <row r="32" spans="4:10">
       <c r="D32" s="1" t="s">
         <v>15</v>
@@ -41118,7 +41669,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D31:J31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41135,7 +41686,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -41482,6 +42033,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="15" spans="1:10">
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
     <row r="16" spans="1:10">
       <c r="D16" s="1" t="s">
         <v>15</v>
@@ -41807,7 +42369,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41824,7 +42386,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -42148,6 +42710,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
     <row r="15" spans="1:10">
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -42404,7 +42977,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
